--- a/static/rs_template.xlsx
+++ b/static/rs_template.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rizic/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rizic/Desktop/rs_automation_site/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F64076-14BA-8643-BD22-44A654E69731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42667CE8-F501-2849-8565-799FFBED8BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25960" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Automation_Logic Requirements" sheetId="2" r:id="rId2"/>
-    <sheet name="Output_Example" sheetId="3" r:id="rId3"/>
-    <sheet name="Instructions" sheetId="4" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="4" r:id="rId1"/>
+    <sheet name="Data_Input" sheetId="1" r:id="rId2"/>
+    <sheet name="Automation_Logic Requirements" sheetId="2" r:id="rId3"/>
+    <sheet name="Output_Example" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -103,27 +116,6 @@
     <t>Highlight owners with multiple flagged exceptions.</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Exception Summary</t>
-  </si>
-  <si>
-    <t>At Risk</t>
-  </si>
-  <si>
-    <t>Failed due to threshold on 3/1</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>Flagged due to unusual activity on 3/1</t>
-  </si>
-  <si>
     <t>Welcome to RS Automation</t>
   </si>
   <si>
@@ -147,24 +139,45 @@
   <si>
     <t>https://calendly.com/ramirez-ricardo55/30min</t>
   </si>
+  <si>
+    <t>Clean up the names to show only first and last name, no punctuation</t>
+  </si>
+  <si>
+    <t>Mark 123</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Jane Doe (SPECIALIST)</t>
+  </si>
+  <si>
+    <t>Mark Butler</t>
+  </si>
+  <si>
+    <t>Exception Alert</t>
+  </si>
+  <si>
+    <t>Test Result Failures</t>
+  </si>
+  <si>
+    <t>Flagged Exception Count</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -174,13 +187,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,18 +248,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -219,9 +310,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DataInputTable" displayName="DataInputTable" ref="A1:G4">
-  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DataInputTable" displayName="DataInputTable" ref="A1:H67">
+  <autoFilter ref="A1:H67" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Process"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Control ID"/>
@@ -229,6 +320,49 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Notes"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Owner"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Exception Flag"/>
+    <tableColumn id="8" xr3:uid="{2810C244-B1DF-6B42-BF95-149C24B34F16}" name="Name" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8893D03D-6265-E142-B46D-7ADC247EF5D4}" name="DataInputTable3" displayName="DataInputTable3" ref="A1:I67">
+  <autoFilter ref="A1:I67" xr:uid="{8893D03D-6265-E142-B46D-7ADC247EF5D4}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F3103F7B-61B4-3048-A410-A776608BA020}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{453BCD17-BE98-EE49-A5E3-59B9F9A2EDD3}" name="Process"/>
+    <tableColumn id="3" xr3:uid="{4EFCE747-6E68-8D47-8581-71577DB31667}" name="Control ID"/>
+    <tableColumn id="4" xr3:uid="{2435EB9C-410B-124F-A07D-87AA10293678}" name="Test Result"/>
+    <tableColumn id="5" xr3:uid="{7C8582C1-3A29-AC46-BD8C-70C783708BF6}" name="Notes"/>
+    <tableColumn id="6" xr3:uid="{B5074497-C4BB-E948-AABD-4E927A0DAB73}" name="Owner"/>
+    <tableColumn id="7" xr3:uid="{BFA6E6B4-C4E1-FB4E-A8E8-186C2702ECBE}" name="Exception Flag"/>
+    <tableColumn id="8" xr3:uid="{F08BE7E2-A64E-F240-A34E-24860F59BBDF}" name="Name" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{D550CB04-B8EA-2340-8BDC-C6A4662D912A}" name="Exception Alert" dataDxfId="3">
+      <calculatedColumnFormula>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69E6907A-524B-1A43-B7B9-16439D9999BF}" name="Table3" displayName="Table3" ref="K1:L3" totalsRowShown="0">
+  <autoFilter ref="K1:L3" xr:uid="{69E6907A-524B-1A43-B7B9-16439D9999BF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{405002FC-3D3A-EF4E-9404-4B1988A28E08}" name="Control ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{21B10ABF-2509-E04D-8CD3-94F5F1F2A96E}" name="Test Result Failures" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EDC374C9-037E-DD47-8BDC-CE9668A3969E}" name="Table4" displayName="Table4" ref="N1:O3" totalsRowShown="0">
+  <autoFilter ref="N1:O3" xr:uid="{EDC374C9-037E-DD47-8BDC-CE9668A3969E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3E9A91B7-8A2E-6C47-BA2F-47FEF8F6A1D3}" name="Owner"/>
+    <tableColumn id="2" xr3:uid="{FEA267C9-5343-0846-98BA-18B2B1228BB1}" name="Flagged Exception Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -518,19 +652,285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{8B342F51-2FA8-D24F-845E-B21B07CE79E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="24.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +952,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -575,8 +978,11 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -598,8 +1004,11 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -621,8 +1030,1650 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -630,106 +2681,299 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -737,59 +2981,2075 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="5">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="I17" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
+      <c r="I19" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v>Exception Alert</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>IF((AND(DataInputTable3[[#This Row],[Test Result]]="Fail",DataInputTable3[[#This Row],[Exception Flag]]="Y")),"Exception Alert","")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" xr:uid="{8B342F51-2FA8-D24F-845E-B21B07CE79E1}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>